--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0691437305122</v>
+        <v>2.658923</v>
       </c>
       <c r="H2">
-        <v>1.0691437305122</v>
+        <v>7.976769</v>
       </c>
       <c r="I2">
-        <v>0.007441826600855525</v>
+        <v>0.01800502032966059</v>
       </c>
       <c r="J2">
-        <v>0.007441826600855525</v>
+        <v>0.01800502032966059</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>76.5719703474868</v>
+        <v>97.21381066666667</v>
       </c>
       <c r="N2">
-        <v>76.5719703474868</v>
+        <v>291.641432</v>
       </c>
       <c r="O2">
-        <v>0.1709147639737186</v>
+        <v>0.2059416914200694</v>
       </c>
       <c r="P2">
-        <v>0.1709147639737186</v>
+        <v>0.2059416914200694</v>
       </c>
       <c r="Q2">
-        <v>81.8664420299816</v>
+        <v>258.4840370992454</v>
       </c>
       <c r="R2">
-        <v>81.8664420299816</v>
+        <v>2326.356333893208</v>
       </c>
       <c r="S2">
-        <v>0.001271918037018563</v>
+        <v>0.003707984340743037</v>
       </c>
       <c r="T2">
-        <v>0.001271918037018563</v>
+        <v>0.003707984340743037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0691437305122</v>
+        <v>2.658923</v>
       </c>
       <c r="H3">
-        <v>1.0691437305122</v>
+        <v>7.976769</v>
       </c>
       <c r="I3">
-        <v>0.007441826600855525</v>
+        <v>0.01800502032966059</v>
       </c>
       <c r="J3">
-        <v>0.007441826600855525</v>
+        <v>0.01800502032966059</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>227.324988964935</v>
+        <v>229.1476846666667</v>
       </c>
       <c r="N3">
-        <v>227.324988964935</v>
+        <v>687.4430540000001</v>
       </c>
       <c r="O3">
-        <v>0.5074075625578476</v>
+        <v>0.4854357775055023</v>
       </c>
       <c r="P3">
-        <v>0.5074075625578476</v>
+        <v>0.4854357775055023</v>
       </c>
       <c r="Q3">
-        <v>243.0430867406153</v>
+        <v>609.2860491569475</v>
       </c>
       <c r="R3">
-        <v>243.0430867406153</v>
+        <v>5483.574442412527</v>
       </c>
       <c r="S3">
-        <v>0.003776039096518254</v>
+        <v>0.008740281042731163</v>
       </c>
       <c r="T3">
-        <v>0.003776039096518254</v>
+        <v>0.008740281042731165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0691437305122</v>
+        <v>2.658923</v>
       </c>
       <c r="H4">
-        <v>1.0691437305122</v>
+        <v>7.976769</v>
       </c>
       <c r="I4">
-        <v>0.007441826600855525</v>
+        <v>0.01800502032966059</v>
       </c>
       <c r="J4">
-        <v>0.007441826600855525</v>
+        <v>0.01800502032966059</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.115655673029</v>
+        <v>145.68382</v>
       </c>
       <c r="N4">
-        <v>144.115655673029</v>
+        <v>437.05146</v>
       </c>
       <c r="O4">
-        <v>0.3216776734684338</v>
+        <v>0.3086225310744283</v>
       </c>
       <c r="P4">
-        <v>0.3216776734684338</v>
+        <v>0.3086225310744283</v>
       </c>
       <c r="Q4">
-        <v>154.0803497314739</v>
+        <v>387.36205972586</v>
       </c>
       <c r="R4">
-        <v>154.0803497314739</v>
+        <v>3486.25853753274</v>
       </c>
       <c r="S4">
-        <v>0.002393869467318709</v>
+        <v>0.005556754946186389</v>
       </c>
       <c r="T4">
-        <v>0.002393869467318709</v>
+        <v>0.005556754946186389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>120.319704586059</v>
+        <v>122.6832073333333</v>
       </c>
       <c r="H5">
-        <v>120.319704586059</v>
+        <v>368.049622</v>
       </c>
       <c r="I5">
-        <v>0.8374911180245611</v>
+        <v>0.8307550245511554</v>
       </c>
       <c r="J5">
-        <v>0.8374911180245611</v>
+        <v>0.8307550245511555</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.5719703474868</v>
+        <v>97.21381066666667</v>
       </c>
       <c r="N5">
-        <v>76.5719703474868</v>
+        <v>291.641432</v>
       </c>
       <c r="O5">
-        <v>0.1709147639737186</v>
+        <v>0.2059416914200694</v>
       </c>
       <c r="P5">
-        <v>0.1709147639737186</v>
+        <v>0.2059416914200694</v>
       </c>
       <c r="Q5">
-        <v>9213.116851782081</v>
+        <v>11926.50208968208</v>
       </c>
       <c r="R5">
-        <v>9213.116851782081</v>
+        <v>107338.5188071387</v>
       </c>
       <c r="S5">
-        <v>0.1431395967672536</v>
+        <v>0.1710870949117862</v>
       </c>
       <c r="T5">
-        <v>0.1431395967672536</v>
+        <v>0.1710870949117862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.319704586059</v>
+        <v>122.6832073333333</v>
       </c>
       <c r="H6">
-        <v>120.319704586059</v>
+        <v>368.049622</v>
       </c>
       <c r="I6">
-        <v>0.8374911180245611</v>
+        <v>0.8307550245511554</v>
       </c>
       <c r="J6">
-        <v>0.8374911180245611</v>
+        <v>0.8307550245511555</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>227.324988964935</v>
+        <v>229.1476846666667</v>
       </c>
       <c r="N6">
-        <v>227.324988964935</v>
+        <v>687.4430540000001</v>
       </c>
       <c r="O6">
-        <v>0.5074075625578476</v>
+        <v>0.4854357775055023</v>
       </c>
       <c r="P6">
-        <v>0.5074075625578476</v>
+        <v>0.4854357775055023</v>
       </c>
       <c r="Q6">
-        <v>27351.6755172901</v>
+        <v>28112.57290791396</v>
       </c>
       <c r="R6">
-        <v>27351.6755172901</v>
+        <v>253013.1561712256</v>
       </c>
       <c r="S6">
-        <v>0.4249493268606892</v>
+        <v>0.4032782112595927</v>
       </c>
       <c r="T6">
-        <v>0.4249493268606892</v>
+        <v>0.4032782112595928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.319704586059</v>
+        <v>122.6832073333333</v>
       </c>
       <c r="H7">
-        <v>120.319704586059</v>
+        <v>368.049622</v>
       </c>
       <c r="I7">
-        <v>0.8374911180245611</v>
+        <v>0.8307550245511554</v>
       </c>
       <c r="J7">
-        <v>0.8374911180245611</v>
+        <v>0.8307550245511555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>144.115655673029</v>
+        <v>145.68382</v>
       </c>
       <c r="N7">
-        <v>144.115655673029</v>
+        <v>437.05146</v>
       </c>
       <c r="O7">
-        <v>0.3216776734684338</v>
+        <v>0.3086225310744283</v>
       </c>
       <c r="P7">
-        <v>0.3216776734684338</v>
+        <v>0.3086225310744283</v>
       </c>
       <c r="Q7">
-        <v>17339.95311680505</v>
+        <v>17872.95829417201</v>
       </c>
       <c r="R7">
-        <v>17339.95311680505</v>
+        <v>160856.6246475481</v>
       </c>
       <c r="S7">
-        <v>0.2694021943966183</v>
+        <v>0.2563897183797764</v>
       </c>
       <c r="T7">
-        <v>0.2694021943966183</v>
+        <v>0.2563897183797764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.2779942284149</v>
+        <v>22.334626</v>
       </c>
       <c r="H8">
-        <v>22.2779942284149</v>
+        <v>67.003878</v>
       </c>
       <c r="I8">
-        <v>0.1550670553745833</v>
+        <v>0.1512399551191839</v>
       </c>
       <c r="J8">
-        <v>0.1550670553745833</v>
+        <v>0.151239955119184</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.5719703474868</v>
+        <v>97.21381066666667</v>
       </c>
       <c r="N8">
-        <v>76.5719703474868</v>
+        <v>291.641432</v>
       </c>
       <c r="O8">
-        <v>0.1709147639737186</v>
+        <v>0.2059416914200694</v>
       </c>
       <c r="P8">
-        <v>0.1709147639737186</v>
+        <v>0.2059416914200694</v>
       </c>
       <c r="Q8">
-        <v>1705.869913459668</v>
+        <v>2171.234103274811</v>
       </c>
       <c r="R8">
-        <v>1705.869913459668</v>
+        <v>19541.1069294733</v>
       </c>
       <c r="S8">
-        <v>0.02650324916944646</v>
+        <v>0.03114661216754012</v>
       </c>
       <c r="T8">
-        <v>0.02650324916944646</v>
+        <v>0.03114661216754012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.2779942284149</v>
+        <v>22.334626</v>
       </c>
       <c r="H9">
-        <v>22.2779942284149</v>
+        <v>67.003878</v>
       </c>
       <c r="I9">
-        <v>0.1550670553745833</v>
+        <v>0.1512399551191839</v>
       </c>
       <c r="J9">
-        <v>0.1550670553745833</v>
+        <v>0.151239955119184</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>227.324988964935</v>
+        <v>229.1476846666667</v>
       </c>
       <c r="N9">
-        <v>227.324988964935</v>
+        <v>687.4430540000001</v>
       </c>
       <c r="O9">
-        <v>0.5074075625578476</v>
+        <v>0.4854357775055023</v>
       </c>
       <c r="P9">
-        <v>0.5074075625578476</v>
+        <v>0.4854357775055023</v>
       </c>
       <c r="Q9">
-        <v>5064.344792135303</v>
+        <v>5117.927835795936</v>
       </c>
       <c r="R9">
-        <v>5064.344792135303</v>
+        <v>46061.35052216342</v>
       </c>
       <c r="S9">
-        <v>0.07868219660064009</v>
+        <v>0.07341728520317833</v>
       </c>
       <c r="T9">
-        <v>0.07868219660064009</v>
+        <v>0.07341728520317835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.2779942284149</v>
+        <v>22.334626</v>
       </c>
       <c r="H10">
-        <v>22.2779942284149</v>
+        <v>67.003878</v>
       </c>
       <c r="I10">
-        <v>0.1550670553745833</v>
+        <v>0.1512399551191839</v>
       </c>
       <c r="J10">
-        <v>0.1550670553745833</v>
+        <v>0.151239955119184</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>144.115655673029</v>
+        <v>145.68382</v>
       </c>
       <c r="N10">
-        <v>144.115655673029</v>
+        <v>437.05146</v>
       </c>
       <c r="O10">
-        <v>0.3216776734684338</v>
+        <v>0.3086225310744283</v>
       </c>
       <c r="P10">
-        <v>0.3216776734684338</v>
+        <v>0.3086225310744283</v>
       </c>
       <c r="Q10">
-        <v>3210.607745307969</v>
+        <v>3253.79363395132</v>
       </c>
       <c r="R10">
-        <v>3210.607745307969</v>
+        <v>29284.14270556188</v>
       </c>
       <c r="S10">
-        <v>0.04988160960449675</v>
+        <v>0.0466760577484655</v>
       </c>
       <c r="T10">
-        <v>0.04988160960449675</v>
+        <v>0.0466760577484655</v>
       </c>
     </row>
   </sheetData>
